--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2715,7 +2715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>146</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>152</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>178</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>190</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>197</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>206</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>214</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>271</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>278</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>279</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>286</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>287</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>294</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>319</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>325</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>330</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>334</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>350</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>358</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>365</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>383</v>
       </c>
@@ -10663,12 +10663,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN79">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="405">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1168,10 +1168,7 @@
     <t>When the purpose of use tag is on the data, access request purpose of use shall not conflict.</t>
   </si>
   <si>
-    <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
   </si>
   <si>
     <t>Consent.provision.class</t>
@@ -1670,8 +1667,8 @@
     <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="105.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
@@ -9478,11 +9475,9 @@
       <c r="X69" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Y69" s="2"/>
+      <c r="Z69" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -9529,10 +9524,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9558,13 +9553,13 @@
         <v>359</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9593,11 +9588,11 @@
         <v>194</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
       </c>
@@ -9614,7 +9609,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>83</v>
@@ -9643,10 +9638,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9672,13 +9667,13 @@
         <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9707,11 +9702,11 @@
         <v>355</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
       </c>
@@ -9728,7 +9723,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
@@ -9757,10 +9752,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9786,13 +9781,13 @@
         <v>331</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9842,7 +9837,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -9871,10 +9866,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9900,10 +9895,10 @@
         <v>245</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9911,7 +9906,7 @@
         <v>82</v>
       </c>
       <c r="Q73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>82</v>
@@ -9956,7 +9951,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -9985,10 +9980,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10097,10 +10092,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10211,10 +10206,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10327,10 +10322,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10356,10 +10351,10 @@
         <v>114</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10389,11 +10384,11 @@
         <v>183</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
       </c>
@@ -10410,7 +10405,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>94</v>
@@ -10439,10 +10434,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10465,13 +10460,13 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10522,7 +10517,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>94</v>
@@ -10551,10 +10546,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10580,10 +10575,10 @@
         <v>85</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10634,7 +10629,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>

--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-multi-jurisdictional-consent.xlsx
+++ b/output/StructureDefinition-multi-jurisdictional-consent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
